--- a/public/storage/files/students.xlsx
+++ b/public/storage/files/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/schools/public/storage/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB437BD-D69D-6344-9BF7-EAE657677DCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CEB1E7-1E6F-C042-8935-9C1B138A444E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="16340" xr2:uid="{725F3DFF-DF2C-AE4E-B832-5AE8A2B44A49}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Student ID</t>
   </si>
@@ -66,54 +66,6 @@
   </si>
   <si>
     <t>Mother's phone</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Muslim</t>
-  </si>
-  <si>
-    <t>Kasese</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>Losophe</t>
-  </si>
-  <si>
-    <t>Haggai</t>
-  </si>
-  <si>
-    <t>Otim</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>14532</t>
-  </si>
-  <si>
-    <t>1113123</t>
-  </si>
-  <si>
-    <t>23223</t>
-  </si>
-  <si>
-    <t>Jaisa</t>
-  </si>
-  <si>
-    <t>Amina</t>
   </si>
 </sst>
 </file>
@@ -477,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADA4D85-1D94-F542-B27B-FB652522F8CA}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,110 +483,6 @@
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4">
-        <v>34561</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4">
-        <v>34593</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4">
-        <v>34561</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4">
-        <v>34593</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
